--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387C0C7-866D-4B15-8C84-3BBF7D3F5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05C53E-46B5-4171-AC2D-472B5737718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05C53E-46B5-4171-AC2D-472B5737718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C86AEB-4E18-4ECA-A8B9-ACA230E19409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Task Name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Progress</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +384,7 @@
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -388,8 +394,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -399,8 +411,11 @@
       <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -410,8 +425,11 @@
       <c r="C3">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -421,8 +439,11 @@
       <c r="C4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -433,7 +454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -442,6 +463,9 @@
       </c>
       <c r="C6">
         <v>50</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C86AEB-4E18-4ECA-A8B9-ACA230E19409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896AB65-97E0-48D6-A61B-9B7BC0B8B0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Estimated Effort Hours</t>
-  </si>
-  <si>
-    <t>Project A: Design UI</t>
-  </si>
-  <si>
-    <t>Project A: Implement Backend</t>
-  </si>
-  <si>
-    <t>Project A: Testing</t>
-  </si>
-  <si>
-    <t>Project B: Database Setup</t>
-  </si>
-  <si>
-    <t>Project B: API Development</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +34,36 @@
   </si>
   <si>
     <t>Progress</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>EstimatedEffortHours</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Design UI</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Implement Backend</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Database Setup</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>API Development</t>
   </si>
 </sst>
 </file>
@@ -107,6 +116,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{86B04E0E-DD87-4469-B60B-B628A639FB53}" name="ProjectName"/>
+    <tableColumn id="3" xr3:uid="{B05B0B85-35FA-4576-82A1-4C0579D87CFB}" name="TaskName"/>
+    <tableColumn id="4" xr3:uid="{1A614939-83A3-45A7-A1F6-C42770FF16D5}" name="EstimatedEffortHours"/>
+    <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="Dependencies"/>
+    <tableColumn id="6" xr3:uid="{4F1650EA-3E7F-4399-AF87-7E47471B2DD0}" name="Progress"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,103 +396,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
+      <c r="F1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>55</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896AB65-97E0-48D6-A61B-9B7BC0B8B0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F031F8-C50A-424C-87EE-97344B661DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Dependencies</t>
-  </si>
-  <si>
     <t>Progress</t>
   </si>
   <si>
@@ -64,6 +61,15 @@
   </si>
   <si>
     <t>API Development</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>TaskDependencies</t>
+  </si>
+  <si>
+    <t>ProjectDependency</t>
   </si>
 </sst>
 </file>
@@ -119,14 +125,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{0D440719-8745-4E73-9729-B73B2CC0C00E}" name="ProjectID"/>
     <tableColumn id="2" xr3:uid="{86B04E0E-DD87-4469-B60B-B628A639FB53}" name="ProjectName"/>
     <tableColumn id="3" xr3:uid="{B05B0B85-35FA-4576-82A1-4C0579D87CFB}" name="TaskName"/>
     <tableColumn id="4" xr3:uid="{1A614939-83A3-45A7-A1F6-C42770FF16D5}" name="EstimatedEffortHours"/>
-    <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="Dependencies"/>
+    <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="TaskDependencies"/>
+    <tableColumn id="8" xr3:uid="{A270C353-8C7A-41A1-8D7F-220B33A6AD12}" name="ProjectDependency"/>
     <tableColumn id="6" xr3:uid="{4F1650EA-3E7F-4399-AF87-7E47471B2DD0}" name="Progress"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -396,122 +404,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>55</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>60</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F031F8-C50A-424C-87EE-97344B661DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861CEF2-FD86-419B-9172-324032937135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,9 +483,6 @@
       <c r="E3">
         <v>55</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861CEF2-FD86-419B-9172-324032937135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A83BF8-6003-4B37-8B56-4453E843E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11352" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
   <autoFilter ref="A1:H6" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H6">
+    <sortCondition descending="1" ref="E1:E6"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
     <tableColumn id="7" xr3:uid="{0D440719-8745-4E73-9729-B73B2CC0C00E}" name="ProjectID"/>
@@ -406,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,24 +472,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -495,18 +501,15 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -515,10 +518,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -526,25 +532,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A83BF8-6003-4B37-8B56-4453E843E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51ABE27-14CC-4567-A7E3-B2A59C62A566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11352" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
   <autoFilter ref="A1:H6" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H6">
-    <sortCondition descending="1" ref="E1:E6"/>
+    <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
@@ -461,38 +461,38 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -532,22 +532,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51ABE27-14CC-4567-A7E3-B2A59C62A566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B83B72-E834-4D3A-BEA4-E0ACE449E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>ProjectDependency</t>
+  </si>
+  <si>
+    <t>InternalID</t>
+  </si>
+  <si>
+    <t>Project C</t>
+  </si>
+  <si>
+    <t>UI Development</t>
+  </si>
+  <si>
+    <t>Project D</t>
   </si>
 </sst>
 </file>
@@ -125,12 +138,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H6">
     <sortCondition ref="A1:A6"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
     <tableColumn id="7" xr3:uid="{0D440719-8745-4E73-9729-B73B2CC0C00E}" name="ProjectID"/>
     <tableColumn id="2" xr3:uid="{86B04E0E-DD87-4469-B60B-B628A639FB53}" name="ProjectName"/>
@@ -139,6 +152,7 @@
     <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="TaskDependencies"/>
     <tableColumn id="8" xr3:uid="{A270C353-8C7A-41A1-8D7F-220B33A6AD12}" name="ProjectDependency"/>
     <tableColumn id="6" xr3:uid="{4F1650EA-3E7F-4399-AF87-7E47471B2DD0}" name="Progress"/>
+    <tableColumn id="10" xr3:uid="{382975DA-D7FF-432F-8137-D9137CB449F3}" name="InternalID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +438,7 @@
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +463,11 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,10 +486,13 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -489,8 +509,11 @@
       <c r="H3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -506,8 +529,11 @@
       <c r="E4">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -526,11 +552,11 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -546,8 +572,68 @@
       <c r="E6">
         <v>60</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="I6">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>35413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>1534</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B83B72-E834-4D3A-BEA4-E0ACE449E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC98ED-1E0F-4279-A186-31E09EE5BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +82,9 @@
   </si>
   <si>
     <t>Project D</t>
+  </si>
+  <si>
+    <t>Analysis</t>
   </si>
 </sst>
 </file>
@@ -138,10 +140,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0">
-  <autoFilter ref="A1:I9" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H6">
-    <sortCondition ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+    <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
@@ -421,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,21 +480,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -501,16 +503,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I3">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -524,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>1235</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -549,9 +548,6 @@
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
       <c r="I5">
         <v>1236</v>
       </c>
@@ -627,13 +623,93 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1534</v>
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>13486</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC98ED-1E0F-4279-A186-31E09EE5BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2684D-E4A2-49A3-8903-309C3F709078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>Project D</t>
   </si>
   <si>
-    <t>Analysis</t>
+    <t>Backend Analysis</t>
   </si>
 </sst>
 </file>
@@ -142,8 +142,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0">
   <autoFilter ref="A1:I13" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-    <sortCondition ref="A1:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,6 +508,9 @@
       <c r="E3">
         <v>55</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="I3">
         <v>1235</v>
       </c>
@@ -528,6 +531,9 @@
       <c r="E4">
         <v>15</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
       <c r="I4">
         <v>123</v>
       </c>
@@ -543,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>1236</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -563,13 +569,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>1327</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -626,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9">
         <v>3135</v>
@@ -666,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>13486</v>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2684D-E4A2-49A3-8903-309C3F709078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE44588A-2D85-453D-AE10-5854737706CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -66,12 +66,6 @@
     <t>ProjectID</t>
   </si>
   <si>
-    <t>TaskDependencies</t>
-  </si>
-  <si>
-    <t>ProjectDependency</t>
-  </si>
-  <si>
     <t>InternalID</t>
   </si>
   <si>
@@ -85,6 +79,9 @@
   </si>
   <si>
     <t>Backend Analysis</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
   </si>
 </sst>
 </file>
@@ -140,19 +137,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0">
-  <autoFilter ref="A1:I13" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{CA36BCF6-9D3D-4FB5-B989-1CE0C17CF698}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
     <sortCondition ref="A1:A13"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
     <tableColumn id="7" xr3:uid="{0D440719-8745-4E73-9729-B73B2CC0C00E}" name="ProjectID"/>
     <tableColumn id="2" xr3:uid="{86B04E0E-DD87-4469-B60B-B628A639FB53}" name="ProjectName"/>
     <tableColumn id="3" xr3:uid="{B05B0B85-35FA-4576-82A1-4C0579D87CFB}" name="TaskName"/>
     <tableColumn id="4" xr3:uid="{1A614939-83A3-45A7-A1F6-C42770FF16D5}" name="EstimatedEffortHours"/>
-    <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="TaskDependencies"/>
-    <tableColumn id="8" xr3:uid="{A270C353-8C7A-41A1-8D7F-220B33A6AD12}" name="ProjectDependency"/>
+    <tableColumn id="5" xr3:uid="{9730AFE1-7050-4486-AAC2-D57F321CD0FE}" name="Dependencies"/>
     <tableColumn id="6" xr3:uid="{4F1650EA-3E7F-4399-AF87-7E47471B2DD0}" name="Progress"/>
     <tableColumn id="10" xr3:uid="{382975DA-D7FF-432F-8137-D9137CB449F3}" name="InternalID"/>
   </tableColumns>
@@ -423,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,11 +432,11 @@
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +453,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,14 +478,14 @@
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
       <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,11 +504,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>1235</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -534,11 +527,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -554,11 +547,11 @@
       <c r="E5">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <v>1327</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -577,11 +570,11 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>1236</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -589,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -597,11 +590,11 @@
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>35413</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -609,19 +602,19 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>56</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <v>4654</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -629,19 +622,19 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>47</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>3135</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -649,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -657,11 +650,11 @@
       <c r="E10">
         <v>75</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>1314</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -669,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -677,11 +670,11 @@
       <c r="E11">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <v>13486</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -689,19 +682,19 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>46</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>1314</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -709,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -717,7 +710,7 @@
       <c r="E13">
         <v>47</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>13486</v>
       </c>
     </row>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE44588A-2D85-453D-AE10-5854737706CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0804C1-7B46-4383-9A42-D44A9DE687DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +423,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ExampleFiles/tasks.xlsx
+++ b/ExampleFiles/tasks.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0804C1-7B46-4383-9A42-D44A9DE687DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95A46F-E5E2-45F9-896F-BCD17DE162D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,9 +63,6 @@
     <t>API Development</t>
   </si>
   <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
     <t>InternalID</t>
   </si>
   <si>
@@ -83,6 +79,9 @@
   </si>
   <si>
     <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Project Id</t>
   </si>
 </sst>
 </file>
@@ -145,7 +144,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C11070B8-C7FE-4695-859A-8CFBC6660079}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{0D440719-8745-4E73-9729-B73B2CC0C00E}" name="ProjectID"/>
+    <tableColumn id="7" xr3:uid="{0D440719-8745-4E73-9729-B73B2CC0C00E}" name="Project Id"/>
     <tableColumn id="2" xr3:uid="{86B04E0E-DD87-4469-B60B-B628A639FB53}" name="ProjectName"/>
     <tableColumn id="3" xr3:uid="{B05B0B85-35FA-4576-82A1-4C0579D87CFB}" name="TaskName"/>
     <tableColumn id="4" xr3:uid="{1A614939-83A3-45A7-A1F6-C42770FF16D5}" name="EstimatedEffortHours"/>
@@ -422,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -454,13 +453,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -583,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -603,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8">
         <v>56</v>
@@ -623,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9">
         <v>47</v>
@@ -643,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -663,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -683,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>46</v>
@@ -703,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
